--- a/Tareas Excel/Transmicion_y_recepcion.xlsx
+++ b/Tareas Excel/Transmicion_y_recepcion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer2021\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer2021\Desktop\InformationTheoryActs\Tareas Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2FDFDB-EE0B-41F1-BCB8-E9D554366FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF939F2-6656-40D6-92EF-13632277A29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{25D94A78-B43D-4CC2-A3A8-348DC840A11D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>A = {0,1}</t>
   </si>
@@ -653,11 +653,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -935,14 +935,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400390</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257515</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>172140</xdr:rowOff>
     </xdr:to>
@@ -967,7 +967,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9372600" y="0"/>
+          <a:off x="7496175" y="0"/>
           <a:ext cx="2438740" cy="4944165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -979,16 +979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>29183</xdr:colOff>
+      <xdr:colOff>667358</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>143459</xdr:rowOff>
+      <xdr:rowOff>114884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1011,7 +1011,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9372600" y="4924425"/>
+          <a:off x="7515225" y="4895850"/>
           <a:ext cx="4353533" cy="4182059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1029,8 +1029,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514633</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209833</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>104839</xdr:rowOff>
     </xdr:to>
@@ -1067,14 +1067,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
@@ -1091,8 +1091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238750" y="3267076"/>
-          <a:ext cx="2305050" cy="1181100"/>
+          <a:off x="4552950" y="3267076"/>
+          <a:ext cx="2524125" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1892,7 +1892,7 @@
   <dimension ref="B9:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:G19"/>
+      <selection activeCell="B10" sqref="B10:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,103 +2255,108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432395FD-27AF-4B34-A2D8-044F550F2A5D}">
-  <dimension ref="G3:K19"/>
+  <dimension ref="G3:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G3" s="32" t="s">
+    <row r="3" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G3" s="31"/>
+      <c r="H3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G4" s="32" t="s">
+      <c r="L3" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="32">
-        <v>0.376</v>
-      </c>
       <c r="I4" s="32">
-        <v>1.6E-2</v>
+        <v>0.94</v>
       </c>
       <c r="J4" s="32">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K4" s="34">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G5" s="32" t="s">
+        <v>0.04</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="32">
-        <v>5.0000000000000001E-3</v>
-      </c>
       <c r="I5" s="32">
-        <v>0.46500000000000002</v>
+        <v>0.01</v>
       </c>
       <c r="J5" s="32">
+        <v>0.93</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0.06</v>
+      </c>
+      <c r="L5" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="32">
         <v>0.03</v>
       </c>
-      <c r="K5" s="34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G6" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="32">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I6" s="32">
-        <v>4.0000000000000001E-3</v>
-      </c>
       <c r="J6" s="32">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="K6" s="34">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="7:11" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0.93</v>
+      </c>
+      <c r="L6" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G7" s="53"/>
-      <c r="H7" s="54">
-        <f>SUM(H4:H6)</f>
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="I7" s="54">
-        <f t="shared" ref="I7:J7" si="0">SUM(I4:I6)</f>
-        <v>0.48500000000000004</v>
-      </c>
-      <c r="J7" s="54">
-        <f t="shared" si="0"/>
-        <v>0.13100000000000001</v>
-      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="53"/>
     </row>
-    <row r="10" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G10" s="32" t="s">
         <v>25</v>
       </c>
@@ -2364,11 +2369,9 @@
       <c r="J10" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G11" s="32" t="s">
         <v>29</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G12" s="32" t="s">
         <v>30</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G13" s="32" t="s">
         <v>31</v>
       </c>
@@ -2419,22 +2422,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="7:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H14" s="55">
+    <row r="14" spans="7:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H14" s="54">
         <f>SUM(H11:H13)</f>
         <v>0.38400000000000001</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="54">
         <f>SUM(I11:I13)</f>
         <v>0.48500000000000004</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="54">
         <f>SUM(J11:J13)</f>
         <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="56" t="s">
+      <c r="H19" s="55" t="s">
         <v>52</v>
       </c>
     </row>
